--- a/13/2/1/Gobierno General 2008 a 2021 - Anual.xlsx
+++ b/13/2/1/Gobierno General 2008 a 2021 - Anual.xlsx
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>65222662</v>
+        <v>65221884</v>
       </c>
       <c r="C14">
         <v>65167462</v>
       </c>
       <c r="D14">
-        <v>55200</v>
+        <v>54423</v>
       </c>
     </row>
   </sheetData>
